--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UOC\Master\M4.257 - Eines HTML i CSS\PAC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramos8\Projects\UOC\EINES-I-HTML-CSS\PAC1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2C82A-9341-43ED-8BC0-C33C540378A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234F978-1E1B-46D6-8D24-5E6323D7353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="8595" windowHeight="15585" xr2:uid="{39A5E3B1-6183-4D21-88D3-AFB2763561BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{39A5E3B1-6183-4D21-88D3-AFB2763561BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$E$6:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$G$6:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,12 +77,6 @@
     <t>quantitat de recursos</t>
   </si>
   <si>
-    <t>4,99 MB</t>
-  </si>
-  <si>
-    <t>5,11 MB</t>
-  </si>
-  <si>
     <t>https://aramosda-eineis-1-pec.netlify.app/presentacio</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>2,62 MB</t>
+  </si>
+  <si>
+    <t>4,31MB</t>
+  </si>
+  <si>
+    <t>4.16MB</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -212,12 +212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,21 +552,21 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -592,30 +586,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -632,10 +626,10 @@
         <v>32.090000000000003</v>
       </c>
       <c r="G6" s="7">
-        <v>53.03</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -652,10 +646,10 @@
         <v>29.41</v>
       </c>
       <c r="G7" s="4">
-        <v>52.28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -672,10 +666,10 @@
         <v>28.78</v>
       </c>
       <c r="G8" s="4">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -685,17 +679,17 @@
       <c r="D9" s="4">
         <v>15.71</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>22.71</v>
       </c>
       <c r="F9" s="4">
         <v>29.76</v>
       </c>
-      <c r="G9" s="4">
-        <v>53.05</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="7">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -709,13 +703,13 @@
         <v>22.86</v>
       </c>
       <c r="F10" s="4">
-        <v>43.26</v>
+        <v>16.89</v>
       </c>
       <c r="G10" s="4">
-        <v>53.14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -730,10 +724,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>53.29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43.87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -747,11 +741,11 @@
         <v>22.95</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>53.49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>44.07</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -769,54 +763,54 @@
       </c>
       <c r="F13" s="9">
         <f>AVERAGE(F7:F11)</f>
-        <v>32.802500000000002</v>
+        <v>26.21</v>
       </c>
       <c r="G13" s="9">
         <f>AVERAGE(G7:G11)</f>
-        <v>52.89200000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43.486000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -833,12 +827,12 @@
         <v>78</v>
       </c>
       <c r="G16" s="4">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E7:E12">
-    <sortCondition ref="E7:E12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:G12">
+    <sortCondition ref="G7:G12"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{BD538EE0-F5A7-43D8-96BE-1ABA1B3FD668}"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramos8\Projects\UOC\EINES-I-HTML-CSS\PAC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UOC\Master\M4.257 - Eines HTML i CSS\PAC1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234F978-1E1B-46D6-8D24-5E6323D7353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22FE3CA-A7D4-466D-93F2-CD788240BF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{39A5E3B1-6183-4D21-88D3-AFB2763561BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39A5E3B1-6183-4D21-88D3-AFB2763561BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$G$6:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$H$7:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>categoria</t>
   </si>
@@ -56,9 +53,6 @@
     <t>enllaç</t>
   </si>
   <si>
-    <t>regular 3G</t>
-  </si>
-  <si>
     <t>mijta in s</t>
   </si>
   <si>
@@ -83,21 +77,9 @@
     <t>https://aramosda-eineis-1-pec.netlify.app/enllacos</t>
   </si>
   <si>
-    <t>1,70 MB</t>
-  </si>
-  <si>
     <t>https://aramosda-eineis-1-pec.netlify.app/categoria</t>
   </si>
   <si>
-    <t>2.12 MB</t>
-  </si>
-  <si>
-    <t>1,93 MB</t>
-  </si>
-  <si>
-    <t>1,47MB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -107,29 +89,122 @@
     <t>https://aramosda-eineis-1-pec.netlify.app</t>
   </si>
   <si>
-    <t>2,30 MB</t>
-  </si>
-  <si>
-    <t>2,17MB</t>
-  </si>
-  <si>
-    <t>5,26 MB</t>
-  </si>
-  <si>
-    <t>2,62 MB</t>
-  </si>
-  <si>
-    <t>4,31MB</t>
-  </si>
-  <si>
     <t>4.16MB</t>
+  </si>
+  <si>
+    <t>4,48 MB</t>
+  </si>
+  <si>
+    <t>1,62 MB</t>
+  </si>
+  <si>
+    <t>4,28MB</t>
+  </si>
+  <si>
+    <t>portada</t>
+  </si>
+  <si>
+    <t>1,30 MB</t>
+  </si>
+  <si>
+    <t>1,45 MB</t>
+  </si>
+  <si>
+    <t>620,75 kB</t>
+  </si>
+  <si>
+    <t>754,63 kB</t>
+  </si>
+  <si>
+    <t>1,24 MB</t>
+  </si>
+  <si>
+    <t>1,05 MB</t>
+  </si>
+  <si>
+    <t>temps in s</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>test 6</t>
+  </si>
+  <si>
+    <t>test 7</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Portada</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Detall</t>
+  </si>
+  <si>
+    <t>Presentació</t>
+  </si>
+  <si>
+    <t>Enllaços</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Temps in s</t>
+  </si>
+  <si>
+    <t>Mijta in s</t>
+  </si>
+  <si>
+    <t>Pes total</t>
+  </si>
+  <si>
+    <t>Pes Transferit</t>
+  </si>
+  <si>
+    <t>Quantitat de recursos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,28 +228,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -182,12 +274,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -202,17 +455,185 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,297 +970,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63D0037-F1EA-4DD7-8490-B79564C7562F}">
-  <dimension ref="B3:H16"/>
+  <dimension ref="A3:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="7" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="44">
+        <v>10.34</v>
+      </c>
+      <c r="D6" s="45">
+        <v>6.34</v>
+      </c>
+      <c r="E6" s="45">
+        <v>13.35</v>
+      </c>
+      <c r="F6" s="45">
+        <v>16.57</v>
+      </c>
+      <c r="G6" s="56">
+        <v>42.73</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="46">
+        <v>10.35</v>
+      </c>
+      <c r="D7" s="47">
+        <v>6.37</v>
+      </c>
+      <c r="E7" s="47">
+        <v>13.35</v>
+      </c>
+      <c r="F7" s="47">
+        <v>16.82</v>
+      </c>
+      <c r="G7" s="57">
+        <v>42.89</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="P7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>10.34</v>
+      </c>
+      <c r="R7" s="10">
+        <v>6.34</v>
+      </c>
+      <c r="S7" s="10">
+        <v>13.34</v>
+      </c>
+      <c r="T7" s="10">
+        <v>16.57</v>
+      </c>
+      <c r="U7" s="10">
+        <v>42.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="46">
+        <v>10.37</v>
+      </c>
+      <c r="D8" s="47">
+        <v>6.44</v>
+      </c>
+      <c r="E8" s="47">
+        <v>13.45</v>
+      </c>
+      <c r="F8" s="47">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="G8" s="57">
+        <v>42.91</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="P8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>10.35</v>
+      </c>
+      <c r="R8" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="S8" s="6">
+        <v>13.35</v>
+      </c>
+      <c r="T8" s="6">
+        <v>16.82</v>
+      </c>
+      <c r="U8" s="6">
+        <v>42.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="46">
+        <v>10.48</v>
+      </c>
+      <c r="D9" s="47">
+        <v>6.51</v>
+      </c>
+      <c r="E9" s="47">
+        <v>13.57</v>
+      </c>
+      <c r="F9" s="47">
+        <v>16.96</v>
+      </c>
+      <c r="G9" s="57">
+        <v>43.07</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="P9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>10.37</v>
+      </c>
+      <c r="R9" s="6">
+        <v>6.44</v>
+      </c>
+      <c r="S9" s="6">
+        <v>13.45</v>
+      </c>
+      <c r="T9" s="6">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="U9" s="6">
+        <v>42.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="46">
+        <v>10.64</v>
+      </c>
+      <c r="D10" s="47">
+        <v>6.66</v>
+      </c>
+      <c r="E10" s="47">
+        <v>13.6</v>
+      </c>
+      <c r="F10" s="47">
+        <v>17.07</v>
+      </c>
+      <c r="G10" s="57">
+        <v>43.12</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="P10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>10.48</v>
+      </c>
+      <c r="R10" s="6">
+        <v>6.51</v>
+      </c>
+      <c r="S10" s="6">
+        <v>13.57</v>
+      </c>
+      <c r="T10" s="6">
+        <v>16.96</v>
+      </c>
+      <c r="U10" s="6">
+        <v>43.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="46">
+        <v>10.81</v>
+      </c>
+      <c r="D11" s="47">
+        <v>6.78</v>
+      </c>
+      <c r="E11" s="47">
+        <v>13.74</v>
+      </c>
+      <c r="F11" s="47">
+        <v>17.11</v>
+      </c>
+      <c r="G11" s="57">
+        <v>43.87</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="P11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>10.64</v>
+      </c>
+      <c r="R11" s="6">
+        <v>6.66</v>
+      </c>
+      <c r="S11" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="T11" s="6">
+        <v>17.07</v>
+      </c>
+      <c r="U11" s="6">
+        <v>43.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="44">
+        <v>10.93</v>
+      </c>
+      <c r="D12" s="45">
+        <v>6.93</v>
+      </c>
+      <c r="E12" s="45">
+        <v>13.86</v>
+      </c>
+      <c r="F12" s="45">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G12" s="56">
+        <v>44.18</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="P12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>10.81</v>
+      </c>
+      <c r="R12" s="6">
+        <v>6.78</v>
+      </c>
+      <c r="S12" s="6">
+        <v>13.74</v>
+      </c>
+      <c r="T12" s="6">
+        <v>17.11</v>
+      </c>
+      <c r="U12" s="6">
+        <v>43.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="48">
+        <f>AVERAGE(C7:C11)</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="D13" s="48">
+        <f>AVERAGE(D7:D11)</f>
+        <v>6.5519999999999996</v>
+      </c>
+      <c r="E13" s="48">
+        <f>AVERAGE(E7:E11)</f>
+        <v>13.541999999999998</v>
+      </c>
+      <c r="F13" s="48">
+        <f>AVERAGE(F7:F11)</f>
+        <v>16.98</v>
+      </c>
+      <c r="G13" s="58">
+        <f>AVERAGE(G7:G11)</f>
+        <v>43.172000000000004</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="P13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>10.93</v>
+      </c>
+      <c r="R13" s="10">
+        <v>6.93</v>
+      </c>
+      <c r="S13" s="10">
+        <v>13.86</v>
+      </c>
+      <c r="T13" s="10">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="U13" s="10">
+        <v>44.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="P14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="Q14" s="8">
+        <f>AVERAGE(Q8:Q12)</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="R14" s="8">
+        <f>AVERAGE(R8:R12)</f>
+        <v>6.5519999999999996</v>
+      </c>
+      <c r="S14" s="8">
+        <f>AVERAGE(S8:S12)</f>
+        <v>13.541999999999998</v>
+      </c>
+      <c r="T14" s="8">
+        <f>AVERAGE(T8:T12)</f>
+        <v>16.98</v>
+      </c>
+      <c r="U14" s="8">
+        <f>AVERAGE(U8:U12)</f>
+        <v>43.172000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F15" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62">
+        <v>12</v>
+      </c>
+      <c r="D16" s="62">
+        <v>21</v>
+      </c>
+      <c r="E16" s="62">
+        <v>19</v>
+      </c>
+      <c r="F16" s="62">
+        <v>38</v>
+      </c>
+      <c r="G16" s="63">
+        <v>34</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>12</v>
+      </c>
+      <c r="R17" s="3">
+        <v>21</v>
+      </c>
+      <c r="S17" s="3">
+        <v>19</v>
+      </c>
+      <c r="T17" s="3">
+        <v>38</v>
+      </c>
+      <c r="U17" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="13:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="X20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M21" s="29"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="30"/>
+    </row>
+    <row r="22" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M22" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="O22" s="15">
+        <f>Q7</f>
+        <v>10.34</v>
+      </c>
+      <c r="P22" s="16">
+        <f>Q8</f>
+        <v>10.35</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>Q9</f>
+        <v>10.37</v>
+      </c>
+      <c r="R22" s="17">
+        <f>Q10</f>
+        <v>10.48</v>
+      </c>
+      <c r="S22" s="17">
+        <f>Q11</f>
+        <v>10.64</v>
+      </c>
+      <c r="T22" s="17">
+        <f>Q12</f>
+        <v>10.81</v>
+      </c>
+      <c r="U22" s="18">
+        <f>Q13</f>
+        <v>10.93</v>
+      </c>
+      <c r="V22" s="19">
+        <f>AVERAGE(P22:T22)</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="W22" s="20" t="str">
+        <f>Q15</f>
+        <v>1,24 MB</v>
+      </c>
+      <c r="X22" s="20" t="str">
+        <f>Q16</f>
+        <v>1,05 MB</v>
+      </c>
+      <c r="Y22" s="32">
+        <f>Q17</f>
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
+    </row>
+    <row r="23" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="15">
+        <f>R7</f>
+        <v>6.34</v>
+      </c>
+      <c r="P23" s="16">
+        <f>R8</f>
+        <v>6.37</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>R9</f>
+        <v>6.44</v>
+      </c>
+      <c r="R23" s="17">
+        <f>R10</f>
+        <v>6.51</v>
+      </c>
+      <c r="S23" s="17">
+        <f>R11</f>
+        <v>6.66</v>
+      </c>
+      <c r="T23" s="17">
+        <f>R12</f>
+        <v>6.78</v>
+      </c>
+      <c r="U23" s="18">
+        <f>R13</f>
+        <v>6.93</v>
+      </c>
+      <c r="V23" s="19">
+        <f t="shared" ref="V23:V26" si="0">AVERAGE(P23:T23)</f>
+        <v>6.5519999999999996</v>
+      </c>
+      <c r="W23" s="20" t="str">
+        <f>R15</f>
+        <v>754,63 kB</v>
+      </c>
+      <c r="X23" s="20" t="str">
+        <f>R16</f>
+        <v>620,75 kB</v>
+      </c>
+      <c r="Y23" s="32">
+        <f>R17</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M24" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="22">
+        <f>S7</f>
+        <v>13.34</v>
+      </c>
+      <c r="P24" s="23">
+        <f>S8</f>
+        <v>13.35</v>
+      </c>
+      <c r="Q24" s="23">
+        <f>$S9</f>
+        <v>13.45</v>
+      </c>
+      <c r="R24" s="23">
+        <f>$S10</f>
+        <v>13.57</v>
+      </c>
+      <c r="S24" s="23">
+        <f>$S11</f>
+        <v>13.6</v>
+      </c>
+      <c r="T24" s="23">
+        <f>$S12</f>
+        <v>13.74</v>
+      </c>
+      <c r="U24" s="24">
+        <f>$S13</f>
+        <v>13.86</v>
+      </c>
+      <c r="V24" s="19">
+        <f t="shared" si="0"/>
+        <v>13.541999999999998</v>
+      </c>
+      <c r="W24" s="20" t="str">
+        <f>$S15</f>
+        <v>1,45 MB</v>
+      </c>
+      <c r="X24" s="20" t="str">
+        <f>$S16</f>
+        <v>1,30 MB</v>
+      </c>
+      <c r="Y24" s="32">
+        <f>$S17</f>
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>15.55</v>
-      </c>
-      <c r="E6" s="7">
-        <v>22.78</v>
-      </c>
-      <c r="F6" s="7">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="G6" s="7">
-        <v>43.98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13.41</v>
-      </c>
-      <c r="D7" s="4">
-        <v>15.59</v>
-      </c>
-      <c r="E7" s="4">
-        <v>22.64</v>
-      </c>
-      <c r="F7" s="4">
-        <v>29.41</v>
-      </c>
-      <c r="G7" s="4">
-        <v>42.65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8">
-        <v>13.43</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15.65</v>
-      </c>
-      <c r="E8" s="4">
-        <v>22.71</v>
-      </c>
-      <c r="F8" s="4">
-        <v>28.78</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8">
-        <v>13.44</v>
-      </c>
-      <c r="D9" s="4">
-        <v>15.71</v>
-      </c>
-      <c r="E9" s="4">
-        <v>22.71</v>
-      </c>
-      <c r="F9" s="4">
-        <v>29.76</v>
-      </c>
-      <c r="G9" s="7">
-        <v>43.64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <v>13.66</v>
-      </c>
-      <c r="D10" s="4">
-        <v>15.78</v>
-      </c>
-      <c r="E10" s="4">
-        <v>22.86</v>
-      </c>
-      <c r="F10" s="4">
-        <v>16.89</v>
-      </c>
-      <c r="G10" s="4">
-        <v>43.67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8">
-        <v>14.74</v>
-      </c>
-      <c r="D11" s="4">
-        <v>15.87</v>
-      </c>
-      <c r="E11" s="4">
-        <v>22.92</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+    <row r="25" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="22">
+        <f>T7</f>
+        <v>16.57</v>
+      </c>
+      <c r="P25" s="23">
+        <f>T8</f>
+        <v>16.82</v>
+      </c>
+      <c r="Q25" s="23">
+        <f>T9</f>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="R25" s="23">
+        <f>T10</f>
+        <v>16.96</v>
+      </c>
+      <c r="S25" s="23">
+        <f>T11</f>
+        <v>17.07</v>
+      </c>
+      <c r="T25" s="23">
+        <f>T12</f>
+        <v>17.11</v>
+      </c>
+      <c r="U25" s="24">
+        <f>T13</f>
+        <v>17.309999999999999</v>
+      </c>
+      <c r="V25" s="19">
+        <f t="shared" si="0"/>
+        <v>16.98</v>
+      </c>
+      <c r="W25" s="20" t="str">
+        <f>T15</f>
+        <v>4,48 MB</v>
+      </c>
+      <c r="X25" s="20" t="str">
+        <f>T16</f>
+        <v>1,62 MB</v>
+      </c>
+      <c r="Y25" s="32">
+        <f>T17</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="13:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="35">
+        <f>U7</f>
+        <v>42.73</v>
+      </c>
+      <c r="P26" s="36">
+        <f>U8</f>
+        <v>42.89</v>
+      </c>
+      <c r="Q26" s="36">
+        <f>U9</f>
+        <v>42.91</v>
+      </c>
+      <c r="R26" s="36">
+        <f>U10</f>
+        <v>43.07</v>
+      </c>
+      <c r="S26" s="36">
+        <f>U11</f>
+        <v>43.12</v>
+      </c>
+      <c r="T26" s="37">
+        <f>U12</f>
         <v>43.87</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6">
-        <v>16.45</v>
-      </c>
-      <c r="D12" s="7">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="E12" s="7">
-        <v>22.95</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4">
-        <v>44.07</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9">
-        <f>AVERAGE(C7:C11)</f>
-        <v>13.735999999999999</v>
-      </c>
-      <c r="D13" s="9">
-        <f>AVERAGE(D7:D11)</f>
-        <v>15.720000000000002</v>
-      </c>
-      <c r="E13" s="9">
-        <f>AVERAGE(E7:E11)</f>
-        <v>22.768000000000001</v>
-      </c>
-      <c r="F13" s="9">
-        <f>AVERAGE(F7:F11)</f>
-        <v>26.21</v>
-      </c>
-      <c r="G13" s="9">
-        <f>AVERAGE(G7:G11)</f>
-        <v>43.486000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4">
-        <v>42</v>
-      </c>
-      <c r="E16" s="4">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4">
-        <v>78</v>
-      </c>
-      <c r="G16" s="4">
-        <v>32</v>
+      <c r="U26" s="38">
+        <f>U13</f>
+        <v>44.18</v>
+      </c>
+      <c r="V26" s="39">
+        <f t="shared" si="0"/>
+        <v>43.172000000000004</v>
+      </c>
+      <c r="W26" s="40" t="str">
+        <f>U15</f>
+        <v>4,28MB</v>
+      </c>
+      <c r="X26" s="40" t="str">
+        <f>U16</f>
+        <v>4.16MB</v>
+      </c>
+      <c r="Y26" s="41">
+        <f>U17</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:G12">
-    <sortCondition ref="G7:G12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:C13">
+    <sortCondition ref="C7:C13"/>
   </sortState>
+  <mergeCells count="20">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="O20:U20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{BD538EE0-F5A7-43D8-96BE-1ABA1B3FD668}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{0F0BEDCD-5A8A-4692-8F0F-9DC0F0FA99D8}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{839D3C9C-4736-4590-9435-6A7ED785E24A}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{A40CE55F-F478-42AF-88A4-6A05D5809EA7}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{83FA76D8-98CD-4DD1-AC93-E4E76E63A259}"/>
+    <hyperlink ref="U5" r:id="rId5" xr:uid="{FECA4736-C7CD-4C51-962B-0A8A9DC50037}"/>
+    <hyperlink ref="S5" r:id="rId6" xr:uid="{B48A0AC5-53F3-48A7-9B68-0AE4098DD23E}"/>
+    <hyperlink ref="R5" r:id="rId7" xr:uid="{89A7BDF5-1336-4D59-9E12-C4D25393AC32}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{ED81CE70-BA32-4495-81CD-4360E11D7B71}"/>
+    <hyperlink ref="T5" r:id="rId9" xr:uid="{9CFCC390-BE83-4A40-B0CA-B1C140338366}"/>
+    <hyperlink ref="N23" r:id="rId10" xr:uid="{3B28C619-958A-411F-84F3-A8273E41EC75}"/>
+    <hyperlink ref="N22" r:id="rId11" xr:uid="{22A9964B-7AD6-4761-912C-5927CECA58EF}"/>
+    <hyperlink ref="N24" r:id="rId12" xr:uid="{A447B230-DBDD-4AB0-935E-A6B7F667D6D3}"/>
+    <hyperlink ref="N25" r:id="rId13" xr:uid="{719D34C0-B2B4-4CB1-9826-4DDF50CE528C}"/>
+    <hyperlink ref="N26" r:id="rId14" xr:uid="{11BAAD10-4B08-4DF7-827A-FB6B4D966843}"/>
+    <hyperlink ref="F5" r:id="rId15" xr:uid="{51257EA6-B800-413C-81A1-49984D9DBEAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
